--- a/docss/trend/sweden/E_ataxy.xlsx
+++ b/docss/trend/sweden/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\sweden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\sweden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,13 +1720,13 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>7.2110946290194988E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>2.137322910130024E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D2" s="9">
-        <v>5.0367144867777824E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>6.4169944729655981E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <v>3.7424884736537933E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,13 +1748,13 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>4.5704908668994904E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C4" s="9">
-        <v>4.3229803442955017E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D4" s="9">
-        <v>3.2354258000850677E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,13 +1762,13 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>5.2079687127843499E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C5" s="9">
-        <v>1.4412752352654934E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D5" s="9">
-        <v>6.918249512091279E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,13 +1776,13 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>0.11048923386260867</v>
+        <v>0.11</v>
       </c>
       <c r="C6" s="9">
-        <v>6.2178563326597214E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>1.9227515906095505E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,13 +1790,13 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>3.8336827419698238E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>3.0122624710202217E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9">
-        <v>7.0676312083378434E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C8" s="9">
-        <v>5.2482851780951023E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D8" s="9">
-        <v>6.4975148998200893E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,13 +1818,13 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>7.1336724795401096E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C9" s="9">
-        <v>7.2575283236801624E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D9" s="9">
-        <v>2.7618546038866043E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,13 +1832,13 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>9.4374914653599262E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C10" s="9">
-        <v>4.0936337783932686E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>6.1333132907748222E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,13 +1846,13 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>7.0410980843007565E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11" s="9">
-        <v>5.4472712799906731E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D11" s="9">
-        <v>6.3247141428291798E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,13 +1860,13 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>6.1975616496056318E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>4.4162135571241379E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>3.4714553039520979E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,13 +1874,13 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9">
-        <v>7.8530076891183853E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C13" s="9">
-        <v>4.89076878875494E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D13" s="9">
-        <v>2.6522146537899971E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>4.1926714591681957E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C14" s="9">
-        <v>4.7083601355552673E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
